--- a/natmiOut/OldD7/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.1875889977276</v>
+        <v>50.70817566666667</v>
       </c>
       <c r="H2">
-        <v>47.1875889977276</v>
+        <v>152.124527</v>
       </c>
       <c r="I2">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027078</v>
       </c>
       <c r="J2">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027077</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N2">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q2">
-        <v>68.33288604158324</v>
+        <v>191.5977485577843</v>
       </c>
       <c r="R2">
-        <v>68.33288604158324</v>
+        <v>1724.379737020059</v>
       </c>
       <c r="S2">
-        <v>0.1331032342205528</v>
+        <v>0.240766213526637</v>
       </c>
       <c r="T2">
-        <v>0.1331032342205528</v>
+        <v>0.2407662135266369</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.1875889977276</v>
+        <v>50.70817566666667</v>
       </c>
       <c r="H3">
-        <v>47.1875889977276</v>
+        <v>152.124527</v>
       </c>
       <c r="I3">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027078</v>
       </c>
       <c r="J3">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027077</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q3">
-        <v>198.6147661571689</v>
+        <v>219.7389774611856</v>
       </c>
       <c r="R3">
-        <v>198.6147661571689</v>
+        <v>1977.65079715067</v>
       </c>
       <c r="S3">
-        <v>0.3868747432003745</v>
+        <v>0.2761291401688299</v>
       </c>
       <c r="T3">
-        <v>0.3868747432003745</v>
+        <v>0.2761291401688299</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.1875889977276</v>
+        <v>50.70817566666667</v>
       </c>
       <c r="H4">
-        <v>47.1875889977276</v>
+        <v>152.124527</v>
       </c>
       <c r="I4">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027078</v>
       </c>
       <c r="J4">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027077</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N4">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q4">
-        <v>10.91470406121758</v>
+        <v>14.75533539909022</v>
       </c>
       <c r="R4">
-        <v>10.91470406121758</v>
+        <v>132.798018591812</v>
       </c>
       <c r="S4">
-        <v>0.02126036957116354</v>
+        <v>0.01854189968356058</v>
       </c>
       <c r="T4">
-        <v>0.02126036957116354</v>
+        <v>0.01854189968356058</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.1875889977276</v>
+        <v>50.70817566666667</v>
       </c>
       <c r="H5">
-        <v>47.1875889977276</v>
+        <v>152.124527</v>
       </c>
       <c r="I5">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027078</v>
       </c>
       <c r="J5">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027077</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N5">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O5">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P5">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q5">
-        <v>18.05113178574143</v>
+        <v>24.41118620953689</v>
       </c>
       <c r="R5">
-        <v>18.05113178574143</v>
+        <v>219.700675885832</v>
       </c>
       <c r="S5">
-        <v>0.03516116706327158</v>
+        <v>0.03067566772368038</v>
       </c>
       <c r="T5">
-        <v>0.03516116706327158</v>
+        <v>0.03067566772368038</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.9928122467794</v>
+        <v>17.08683666666667</v>
       </c>
       <c r="H6">
-        <v>16.9928122467794</v>
+        <v>51.26051</v>
       </c>
       <c r="I6">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="J6">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N6">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q6">
-        <v>24.60748530383942</v>
+        <v>64.56157004796333</v>
       </c>
       <c r="R6">
-        <v>24.60748530383942</v>
+        <v>581.05413043167</v>
       </c>
       <c r="S6">
-        <v>0.04793205833546353</v>
+        <v>0.08112957942767708</v>
       </c>
       <c r="T6">
-        <v>0.04793205833546353</v>
+        <v>0.08112957942767708</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.9928122467794</v>
+        <v>17.08683666666667</v>
       </c>
       <c r="H7">
-        <v>16.9928122467794</v>
+        <v>51.26051</v>
       </c>
       <c r="I7">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="J7">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q7">
-        <v>71.52354045698958</v>
+        <v>74.04415496745555</v>
       </c>
       <c r="R7">
-        <v>71.52354045698958</v>
+        <v>666.3973947071</v>
       </c>
       <c r="S7">
-        <v>0.1393181981503981</v>
+        <v>0.09304561749543323</v>
       </c>
       <c r="T7">
-        <v>0.1393181981503981</v>
+        <v>0.09304561749543325</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.9928122467794</v>
+        <v>17.08683666666667</v>
       </c>
       <c r="H8">
-        <v>16.9928122467794</v>
+        <v>51.26051</v>
       </c>
       <c r="I8">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="J8">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N8">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q8">
-        <v>3.930514798083086</v>
+        <v>4.972018863062223</v>
       </c>
       <c r="R8">
-        <v>3.930514798083086</v>
+        <v>44.74816976756001</v>
       </c>
       <c r="S8">
-        <v>0.007656112043302779</v>
+        <v>0.006247955230441926</v>
       </c>
       <c r="T8">
-        <v>0.007656112043302779</v>
+        <v>0.006247955230441926</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.9928122467794</v>
+        <v>17.08683666666667</v>
       </c>
       <c r="H9">
-        <v>16.9928122467794</v>
+        <v>51.26051</v>
       </c>
       <c r="I9">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="J9">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N9">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O9">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P9">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q9">
-        <v>6.500427332529057</v>
+        <v>8.225694301128888</v>
       </c>
       <c r="R9">
-        <v>6.500427332529057</v>
+        <v>74.03124871016</v>
       </c>
       <c r="S9">
-        <v>0.01266195461507031</v>
+        <v>0.01033659991006181</v>
       </c>
       <c r="T9">
-        <v>0.01266195461507031</v>
+        <v>0.01033659991006181</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.4855004994984</v>
+        <v>18.33915266666667</v>
       </c>
       <c r="H10">
-        <v>15.4855004994984</v>
+        <v>55.017458</v>
       </c>
       <c r="I10">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="J10">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N10">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O10">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P10">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q10">
-        <v>22.4247299640603</v>
+        <v>69.29336966268734</v>
       </c>
       <c r="R10">
-        <v>22.4247299640603</v>
+        <v>623.6403269641861</v>
       </c>
       <c r="S10">
-        <v>0.04368034569654495</v>
+        <v>0.08707566953040242</v>
       </c>
       <c r="T10">
-        <v>0.04368034569654495</v>
+        <v>0.08707566953040242</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.4855004994984</v>
+        <v>18.33915266666667</v>
       </c>
       <c r="H11">
-        <v>15.4855004994984</v>
+        <v>55.017458</v>
       </c>
       <c r="I11">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="J11">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P11">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q11">
-        <v>65.17919490827789</v>
+        <v>79.47094529624222</v>
       </c>
       <c r="R11">
-        <v>65.17919490827789</v>
+        <v>715.23850766618</v>
       </c>
       <c r="S11">
-        <v>0.1269602697726561</v>
+        <v>0.09986504918969911</v>
       </c>
       <c r="T11">
-        <v>0.1269602697726561</v>
+        <v>0.09986504918969913</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.4855004994984</v>
+        <v>18.33915266666667</v>
       </c>
       <c r="H12">
-        <v>15.4855004994984</v>
+        <v>55.017458</v>
       </c>
       <c r="I12">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="J12">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N12">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O12">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P12">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q12">
-        <v>3.5818667319494</v>
+        <v>5.33642445176089</v>
       </c>
       <c r="R12">
-        <v>3.5818667319494</v>
+        <v>48.027820065848</v>
       </c>
       <c r="S12">
-        <v>0.006976992692498617</v>
+        <v>0.006705875818963155</v>
       </c>
       <c r="T12">
-        <v>0.006976992692498617</v>
+        <v>0.006705875818963155</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.4855004994984</v>
+        <v>18.33915266666667</v>
       </c>
       <c r="H13">
-        <v>15.4855004994984</v>
+        <v>55.017458</v>
       </c>
       <c r="I13">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="J13">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N13">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O13">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P13">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q13">
-        <v>5.923820568541267</v>
+        <v>8.828565902547554</v>
       </c>
       <c r="R13">
-        <v>5.923820568541267</v>
+        <v>79.457093122928</v>
       </c>
       <c r="S13">
-        <v>0.01153880250477429</v>
+        <v>0.01109418246940246</v>
       </c>
       <c r="T13">
-        <v>0.01153880250477429</v>
+        <v>0.01109418246940246</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.20021341929657</v>
+        <v>3.438381</v>
       </c>
       <c r="H14">
-        <v>2.20021341929657</v>
+        <v>10.315143</v>
       </c>
       <c r="I14">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="J14">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N14">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O14">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P14">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q14">
-        <v>3.186154157085562</v>
+        <v>12.991712867259</v>
       </c>
       <c r="R14">
-        <v>3.186154157085562</v>
+        <v>116.925415805331</v>
       </c>
       <c r="S14">
-        <v>0.006206198034358941</v>
+        <v>0.01632569034772279</v>
       </c>
       <c r="T14">
-        <v>0.006206198034358941</v>
+        <v>0.01632569034772279</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.20021341929657</v>
+        <v>3.438381</v>
       </c>
       <c r="H15">
-        <v>2.20021341929657</v>
+        <v>10.315143</v>
       </c>
       <c r="I15">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="J15">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N15">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O15">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P15">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q15">
-        <v>9.260801050685117</v>
+        <v>14.89989168667</v>
       </c>
       <c r="R15">
-        <v>9.260801050685117</v>
+        <v>134.09902518003</v>
       </c>
       <c r="S15">
-        <v>0.01803878985250486</v>
+        <v>0.01872355249662354</v>
       </c>
       <c r="T15">
-        <v>0.01803878985250486</v>
+        <v>0.01872355249662354</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.20021341929657</v>
+        <v>3.438381</v>
       </c>
       <c r="H16">
-        <v>2.20021341929657</v>
+        <v>10.315143</v>
       </c>
       <c r="I16">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="J16">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N16">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O16">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P16">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q16">
-        <v>0.5089193759040784</v>
+        <v>1.000518441412</v>
       </c>
       <c r="R16">
-        <v>0.5089193759040784</v>
+        <v>9.004665972708002</v>
       </c>
       <c r="S16">
-        <v>0.0009913062189282681</v>
+        <v>0.001257274881962868</v>
       </c>
       <c r="T16">
-        <v>0.0009913062189282681</v>
+        <v>0.001257274881962868</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.20021341929657</v>
+        <v>3.438381</v>
       </c>
       <c r="H17">
-        <v>2.20021341929657</v>
+        <v>10.315143</v>
       </c>
       <c r="I17">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="J17">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N17">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O17">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P17">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q17">
-        <v>0.8416692446480315</v>
+        <v>1.655254951432</v>
       </c>
       <c r="R17">
-        <v>0.8416692446480315</v>
+        <v>14.897294562888</v>
       </c>
       <c r="S17">
-        <v>0.001639458028136682</v>
+        <v>0.002080032098901761</v>
       </c>
       <c r="T17">
-        <v>0.001639458028136682</v>
+        <v>0.002080032098901761</v>
       </c>
     </row>
   </sheetData>
